--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed5/result_data_KNN.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>7.052</v>
+        <v>6.368</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.512</v>
+        <v>-21.435</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.59</v>
+        <v>-8.158000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.109999999999999</v>
+        <v>-7.994</v>
       </c>
     </row>
     <row r="20">
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.612</v>
+        <v>7.628</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.556</v>
+        <v>-7.379</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-21.637</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>4.996</v>
+        <v>5.36</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-20.666</v>
+        <v>-21.137</v>
       </c>
       <c r="B32" t="n">
-        <v>7.56</v>
+        <v>6.955</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.618</v>
+        <v>6.425</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.04</v>
+        <v>-20.764</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.702</v>
+        <v>-20.722</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.309999999999999</v>
+        <v>-8.392999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.473999999999999</v>
+        <v>-8.209</v>
       </c>
     </row>
     <row r="42">
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>6.63</v>
+        <v>8.046000000000001</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.59</v>
+        <v>-21.578</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.818000000000001</v>
+        <v>6.255999999999999</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.915999999999999</v>
+        <v>-7.941000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-20.27</v>
+        <v>-20.886</v>
       </c>
       <c r="B54" t="n">
-        <v>6.362</v>
+        <v>5.731999999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.08</v>
+        <v>-22.016</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.132</v>
+        <v>-21.644</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.586</v>
+        <v>-21.422</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62</v>
+        <v>-21.387</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.464</v>
+        <v>-21.57</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-8.074000000000002</v>
+        <v>-7.734</v>
       </c>
     </row>
     <row r="73">
@@ -1524,13 +1524,13 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>7.422</v>
+        <v>6.921000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.597999999999999</v>
+        <v>-8.116</v>
       </c>
     </row>
     <row r="79">
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.050000000000001</v>
+        <v>7.519</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.624</v>
+        <v>-21.216</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.492000000000001</v>
+        <v>-7.978999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1628,12 +1628,12 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.729999999999999</v>
+        <v>-8.643000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.804</v>
+        <v>-21.733</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.488</v>
+        <v>-8.497</v>
       </c>
     </row>
     <row r="87">
@@ -1698,12 +1698,12 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.026000000000001</v>
+        <v>-7.045</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.732</v>
+        <v>-20.94</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.388</v>
+        <v>-21.545</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.316</v>
+        <v>-7.279999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.356</v>
+        <v>5.491000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.608</v>
+        <v>-20.858</v>
       </c>
       <c r="B99" t="n">
-        <v>6.07</v>
+        <v>5.944</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.074</v>
+        <v>5.252000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1880,12 +1880,12 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.187999999999999</v>
+        <v>-8.342000000000002</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.174</v>
+        <v>-21.437</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
